--- a/medicine/Psychotrope/Brasserie_Goudale/Brasserie_Goudale.xlsx
+++ b/medicine/Psychotrope/Brasserie_Goudale/Brasserie_Goudale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Brasserie Goudale[1] est une brasserie française située à Arques, dans le département Pas-de-Calais.
+La Brasserie Goudale est une brasserie française située à Arques, dans le département Pas-de-Calais.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1919 à Douai (département du Nord), quatre brasseries se réunissent pour former La grande brasserie des enfants de Gayant[2]. La bière sans alcool Celta est lancée en 1970, la Goudale en 1994. Son nom est un hommage au symbole de la ville, le géant Gayant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1919 à Douai (département du Nord), quatre brasseries se réunissent pour former La grande brasserie des enfants de Gayant. La bière sans alcool Celta est lancée en 1970, la Goudale en 1994. Son nom est un hommage au symbole de la ville, le géant Gayant.
 Le changement de nom intervient en 1995. En 2001, la brasserie de Gayant prend le contrôle de la Brasserie Jeanne d'Arc, située à Ronchin, qui fabrique les bières Triple Secret des Moines, Grain d'Orge, Ambrée des Flandres, Septante 5 et Belzébuth. Renommée l'année suivante en Brasserie Grain d'Orge, celle-ci est fermée en 2005, et la fabrication est transférée à Douai.
-En 2010, la famille d'Aubreby, qui possédait la brasserie depuis 1955, la revend à André Pecqueur, qui possède la Brasserie de Saint-Omer[3].
+En 2010, la famille d'Aubreby, qui possédait la brasserie depuis 1955, la revend à André Pecqueur, qui possède la Brasserie de Saint-Omer.
 Le site de production s'installe à Arques en 2017 afin de se rapprocher de celui de la Brasserie de Saint-Omer, elle prend le nom de Brasserie Goudale.
 </t>
         </is>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,21 +590,199 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Goudale
-Créée en 1994, la Goudale est une bière blonde de garde de fermentation haute et titre un degré d'alcool de 7,2 %. Elle est composée à partir de trois variétés de houblon des Flandres, deux variétés de malt (malt pâle et malt caramel), de trois céréales (orge, blé et riz) et d'épices (coriandre et écorces d'oranges amères).
-La Goudale de Noël
-Créée en 2012. 
-“G” de Goudale Grand Cru
-Créée en 2013, la “G” de Goudale Grand cru Mandarina est une association d'un houblonnage à cru et de l'utilisation de la variété de houblon Hallertau Mandarina.
+          <t>La Goudale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1994, la Goudale est une bière blonde de garde de fermentation haute et titre un degré d'alcool de 7,2 %. Elle est composée à partir de trois variétés de houblon des Flandres, deux variétés de malt (malt pâle et malt caramel), de trois céréales (orge, blé et riz) et d'épices (coriandre et écorces d'oranges amères).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Déclinaison de la Goudale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La Goudale de Noël</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 2012. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Déclinaison de la Goudale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>“G” de Goudale Grand Cru</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Créée en 2013, la “G” de Goudale Grand cru Mandarina est une association d'un houblonnage à cru et de l'utilisation de la variété de houblon Hallertau Mandarina.
 Créée en 2014, la “G” de Goudale Grand Cru Citra &amp; Amarillo est composée de deux houblons provenant des États-Unis : l'Amarillo et le Citra.
-World Beer Awards : Belgian Style Strong Pale Ale - Bronze Medal 2015[4]
-La Goudale ambrée
-Créée en 2015, La Goudale Ambrée est composée de malts torréfiés.
-Médaille d'or au Concours général agricole 2020, catégorie bière ambrée[5]
-La Goudale IPA
-La Goudale IPA est composée de plusieurs houblons d'origine américaine (des plaines du Yakima). 
-La Goudale de printemps
-Créée en 2015, elle est produite à partir d'une variété d'orge semée au printemps et récoltée en été.
+World Beer Awards : Belgian Style Strong Pale Ale - Bronze Medal 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Déclinaison de la Goudale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La Goudale ambrée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Créée en 2015, La Goudale Ambrée est composée de malts torréfiés.
+Médaille d'or au Concours général agricole 2020, catégorie bière ambrée</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Déclinaison de la Goudale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La Goudale IPA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Goudale IPA est composée de plusieurs houblons d'origine américaine (des plaines du Yakima). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Goudale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Déclinaison de la Goudale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La Goudale de printemps</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 2015, elle est produite à partir d'une variété d'orge semée au printemps et récoltée en été.
 </t>
         </is>
       </c>
